--- a/dumps/Stocks/Apollo Hospitals Enterprise Ltd.xlsx
+++ b/dumps/Stocks/Apollo Hospitals Enterprise Ltd.xlsx
@@ -16,10 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$₹]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="dd-mmm-yyyy"/>
     <numFmt numFmtId="166" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -200,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -429,6 +430,10 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -29590,7 +29595,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP974"/>
+  <dimension ref="A1:AP979"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -29939,43 +29944,41 @@
       <c r="AP4" s="26" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="85" t="n">
-        <v>46052</v>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
+      <c r="A5" s="86" t="n">
+        <v>46059</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C5" s="0" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>6787</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>20504.91</v>
-      </c>
-      <c r="G5" s="0" t="inlineStr">
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7120.57</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7120.57</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H5" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>123.91</v>
+      <c r="J5">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="85" t="n">
-        <v>46050</v>
+      <c r="A6" s="86" t="n">
+        <v>45842</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -29984,33 +29987,27 @@
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>6867.5</v>
+        <v>7504.1</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>6916.25</v>
+        <v>7504.1</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H6" s="0" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>41.84</v>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" s="85" t="n">
-        <v>46049</v>
+      <c r="A7" s="86" t="n">
+        <v>45842</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -30019,33 +30016,27 @@
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>6785.5</v>
+        <v>7504.1</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>6833.62</v>
+        <v>7504.1</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H7" s="0" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>41.33</v>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" s="85" t="n">
-        <v>46044</v>
+      <c r="A8" s="86" t="n">
+        <v>45842</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -30054,33 +30045,27 @@
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>6892.5</v>
+        <v>7504.1</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>6941.39</v>
+        <v>7504.1</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H8" s="0" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>41.98</v>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" s="85" t="n">
-        <v>46043</v>
+      <c r="A9" s="86" t="n">
+        <v>45842</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -30089,33 +30074,27 @@
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>6880</v>
+        <v>7504.1</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>6928.47</v>
+        <v>15008.2</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H9" s="0" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>41.7</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="85" t="n">
-        <v>46034</v>
+        <v>46052</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -30128,13 +30107,13 @@
         </is>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>7167</v>
+        <v>6787</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>7217.83</v>
+        <v>20504.91</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
@@ -30142,15 +30121,15 @@
         </is>
       </c>
       <c r="H10" s="0" t="n">
-        <v>7.19</v>
+        <v>20</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>43.64</v>
+        <v>123.91</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="85" t="n">
-        <v>46022</v>
+        <v>46050</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -30166,10 +30145,10 @@
         <v>1</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>6990</v>
+        <v>6867.5</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>7039.54</v>
+        <v>6916.25</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
@@ -30177,15 +30156,15 @@
         </is>
       </c>
       <c r="H11" s="0" t="n">
-        <v>6.96</v>
+        <v>6.91</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>42.58</v>
+        <v>41.84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="85" t="n">
-        <v>46014</v>
+        <v>46049</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -30201,10 +30180,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>7047.5</v>
+        <v>6785.5</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>7097.43</v>
+        <v>6833.62</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
@@ -30212,15 +30191,15 @@
         </is>
       </c>
       <c r="H12" s="0" t="n">
-        <v>7.01</v>
+        <v>6.79</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>42.92</v>
+        <v>41.33</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="85" t="n">
-        <v>46009</v>
+        <v>46044</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
@@ -30236,10 +30215,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>6884</v>
+        <v>6892.5</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>6932.77</v>
+        <v>6941.39</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
@@ -30247,15 +30226,15 @@
         </is>
       </c>
       <c r="H13" s="0" t="n">
-        <v>6.88</v>
+        <v>6.91</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>41.89</v>
+        <v>41.98</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="85" t="n">
-        <v>46008</v>
+        <v>46043</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
@@ -30271,10 +30250,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>6926</v>
+        <v>6880</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>6975.08</v>
+        <v>6928.47</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
@@ -30282,15 +30261,15 @@
         </is>
       </c>
       <c r="H14" s="0" t="n">
-        <v>6.96</v>
+        <v>6.77</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>42.12</v>
+        <v>41.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="85" t="n">
-        <v>46007</v>
+        <v>46034</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
@@ -30306,10 +30285,10 @@
         <v>1</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>7123</v>
+        <v>7167</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>7173.51</v>
+        <v>7217.83</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
@@ -30317,19 +30296,19 @@
         </is>
       </c>
       <c r="H15" s="0" t="n">
-        <v>7.1</v>
+        <v>7.19</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>43.41</v>
+        <v>43.64</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="85" t="n">
-        <v>46006</v>
+        <v>46022</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
@@ -30341,10 +30320,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>7053.95</v>
+        <v>6990</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>7104.06</v>
+        <v>7039.54</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
@@ -30352,15 +30331,15 @@
         </is>
       </c>
       <c r="H16" s="0" t="n">
-        <v>7.08</v>
+        <v>6.96</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>43.03</v>
+        <v>42.58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="85" t="n">
-        <v>45996</v>
+        <v>46014</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
@@ -30376,10 +30355,10 @@
         <v>1</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>7172.5</v>
+        <v>7047.5</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>7223.34</v>
+        <v>7097.43</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
@@ -30387,494 +30366,625 @@
         </is>
       </c>
       <c r="H17" s="0" t="n">
-        <v>7.14</v>
+        <v>7.01</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>43.7</v>
+        <v>42.92</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="58" t="n">
-        <v>45734</v>
-      </c>
-      <c r="B18" s="59" t="inlineStr">
+      <c r="A18" s="85" t="n">
+        <v>46009</v>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C18" s="59" t="inlineStr">
+      <c r="C18" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D18" s="60" t="n">
+      <c r="D18" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E18" s="61" t="n">
-        <v>6292.54</v>
-      </c>
-      <c r="F18" s="61">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G18" s="59" t="inlineStr">
+      <c r="E18" s="0" t="n">
+        <v>6884</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>6932.77</v>
+      </c>
+      <c r="G18" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H18" s="60" t="n"/>
-      <c r="I18" s="60" t="n">
-        <v>44.34</v>
-      </c>
-      <c r="J18" s="62">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K18" s="63">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L18" s="64">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M18" s="64">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N18" s="65">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O18" s="63">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P18" s="64">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q18" s="64">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R18" s="64">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S18" s="66">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T18" s="67">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U18" s="67">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V18" s="67">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W18" s="67" t="n"/>
-      <c r="X18" s="67" t="n"/>
-      <c r="Y18" s="66">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z18" s="67" t="n"/>
-      <c r="AA18" s="67" t="n"/>
-      <c r="AB18" s="68" t="n"/>
-      <c r="AC18" s="64">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD18" s="69" t="n"/>
+      <c r="H18" s="0" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>41.89</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="58" t="n">
-        <v>45722</v>
-      </c>
-      <c r="B19" s="59" t="inlineStr">
+      <c r="A19" s="85" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C19" s="59" t="inlineStr">
+      <c r="C19" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D19" s="60" t="n">
+      <c r="D19" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E19" s="61" t="n">
-        <v>6314.66</v>
-      </c>
-      <c r="F19" s="61" t="n">
-        <v>6314.66</v>
-      </c>
-      <c r="G19" s="59" t="inlineStr">
+      <c r="E19" s="0" t="n">
+        <v>6926</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>6975.08</v>
+      </c>
+      <c r="G19" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H19" s="60" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="I19" s="60" t="n">
-        <v>38.16</v>
-      </c>
-      <c r="J19" s="62">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K19" s="63">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="L19" s="64">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="M19" s="64">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
-        <v/>
-      </c>
-      <c r="N19" s="65">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
-        <v/>
-      </c>
-      <c r="O19" s="63">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="P19" s="64">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="Q19" s="64">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
-        <v/>
-      </c>
-      <c r="R19" s="64">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="S19" s="66">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="T19" s="67">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="U19" s="67">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
-        <v/>
-      </c>
-      <c r="V19" s="67">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="W19" s="67" t="n"/>
-      <c r="X19" s="67" t="n"/>
-      <c r="Y19" s="66">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="Z19" s="67" t="n"/>
-      <c r="AA19" s="67" t="n"/>
-      <c r="AB19" s="68" t="n"/>
-      <c r="AC19" s="64">
-        <f>if(B6="DIV", F6,"")</f>
-        <v/>
-      </c>
-      <c r="AD19" s="69" t="n"/>
+      <c r="H19" s="0" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>42.12</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="58" t="n">
-        <v>45716</v>
-      </c>
-      <c r="B20" s="59" t="inlineStr">
+      <c r="A20" s="85" t="n">
+        <v>46007</v>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C20" s="59" t="inlineStr">
+      <c r="C20" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D20" s="60" t="n">
+      <c r="D20" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E20" s="61" t="n">
-        <v>6141.28</v>
-      </c>
-      <c r="F20" s="61" t="n">
-        <v>6141.28</v>
-      </c>
-      <c r="G20" s="59" t="inlineStr">
+      <c r="E20" s="0" t="n">
+        <v>7123</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>7173.51</v>
+      </c>
+      <c r="G20" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H20" s="60" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="I20" s="60" t="n">
-        <v>37.1</v>
-      </c>
-      <c r="J20" s="62">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K20" s="63">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="L20" s="64">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="M20" s="64">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
-        <v/>
-      </c>
-      <c r="N20" s="65">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
-        <v/>
-      </c>
-      <c r="O20" s="63">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="P20" s="64">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="Q20" s="64">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
-        <v/>
-      </c>
-      <c r="R20" s="64">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
-        <v/>
-      </c>
-      <c r="S20" s="66">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="T20" s="67">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="U20" s="67">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
-        <v/>
-      </c>
-      <c r="V20" s="67">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
-        <v/>
-      </c>
-      <c r="W20" s="67" t="n"/>
-      <c r="X20" s="67" t="n"/>
-      <c r="Y20" s="66">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="Z20" s="67" t="n"/>
-      <c r="AA20" s="67" t="n"/>
-      <c r="AB20" s="68" t="n"/>
-      <c r="AC20" s="64">
-        <f>if(B7="DIV", F7,"")</f>
-        <v/>
-      </c>
-      <c r="AD20" s="69" t="n"/>
+      <c r="H20" s="0" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>43.41</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="58" t="n">
-        <v>45712</v>
-      </c>
-      <c r="B21" s="59" t="inlineStr">
+      <c r="A21" s="85" t="n">
+        <v>46006</v>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>7053.95</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>7104.06</v>
+      </c>
+      <c r="G21" s="0" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>43.03</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="85" t="n">
+        <v>45996</v>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C21" s="59" t="inlineStr">
+      <c r="C22" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D21" s="60" t="n">
-        <v>2</v>
-      </c>
-      <c r="E21" s="61" t="n">
-        <v>6302.09</v>
-      </c>
-      <c r="F21" s="61" t="n">
-        <v>12604.18</v>
-      </c>
-      <c r="G21" s="59" t="inlineStr">
+      <c r="D22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>7172.5</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>7223.34</v>
+      </c>
+      <c r="G22" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H21" s="60" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="I21" s="60" t="n">
-        <v>76.19</v>
-      </c>
-      <c r="J21" s="62">
+      <c r="H22" s="0" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>43.7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="58" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B23" s="59" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C23" s="59" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D23" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="61" t="n">
+        <v>6292.54</v>
+      </c>
+      <c r="F23" s="61">
+        <f>D5*E5</f>
+        <v/>
+      </c>
+      <c r="G23" s="59" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H23" s="60" t="n"/>
+      <c r="I23" s="60" t="n">
+        <v>44.34</v>
+      </c>
+      <c r="J23" s="62">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K21" s="63">
+      <c r="K23" s="63">
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
+        <v/>
+      </c>
+      <c r="L23" s="64">
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
+        <v/>
+      </c>
+      <c r="M23" s="64">
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
+        <v/>
+      </c>
+      <c r="N23" s="65">
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
+        <v/>
+      </c>
+      <c r="O23" s="63">
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
+        <v/>
+      </c>
+      <c r="P23" s="64">
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
+        <v/>
+      </c>
+      <c r="Q23" s="64">
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
+        <v/>
+      </c>
+      <c r="R23" s="64">
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
+        <v/>
+      </c>
+      <c r="S23" s="66">
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
+        <v/>
+      </c>
+      <c r="T23" s="67">
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
+        <v/>
+      </c>
+      <c r="U23" s="67">
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
+        <v/>
+      </c>
+      <c r="V23" s="67">
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
+        <v/>
+      </c>
+      <c r="W23" s="67" t="n">
+        <v>7504.1</v>
+      </c>
+      <c r="X23" s="87" t="n">
+        <v>45842</v>
+      </c>
+      <c r="Y23" s="66" t="n">
+        <v>26.941813</v>
+      </c>
+      <c r="Z23" s="67" t="n">
+        <v>1194.6</v>
+      </c>
+      <c r="AA23" s="67" t="n">
+        <v>7487.14</v>
+      </c>
+      <c r="AB23" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="64">
+        <f>if(B5="DIV", F5,"")</f>
+        <v/>
+      </c>
+      <c r="AD23" s="69" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="58" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B24" s="59" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C24" s="59" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D24" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="61" t="n">
+        <v>6314.66</v>
+      </c>
+      <c r="F24" s="61" t="n">
+        <v>6314.66</v>
+      </c>
+      <c r="G24" s="59" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H24" s="60" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="I24" s="60" t="n">
+        <v>38.16</v>
+      </c>
+      <c r="J24" s="62">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K24" s="63">
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <v/>
+      </c>
+      <c r="L24" s="64">
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <v/>
+      </c>
+      <c r="M24" s="64">
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <v/>
+      </c>
+      <c r="N24" s="65">
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <v/>
+      </c>
+      <c r="O24" s="63">
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <v/>
+      </c>
+      <c r="P24" s="64">
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <v/>
+      </c>
+      <c r="Q24" s="64">
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <v/>
+      </c>
+      <c r="R24" s="64">
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <v/>
+      </c>
+      <c r="S24" s="66">
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <v/>
+      </c>
+      <c r="T24" s="67">
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <v/>
+      </c>
+      <c r="U24" s="67">
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <v/>
+      </c>
+      <c r="V24" s="67">
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <v/>
+      </c>
+      <c r="W24" s="67" t="n">
+        <v>7504.1</v>
+      </c>
+      <c r="X24" s="87" t="n">
+        <v>45842</v>
+      </c>
+      <c r="Y24" s="66" t="n">
+        <v>0.184426</v>
+      </c>
+      <c r="Z24" s="67" t="n">
+        <v>1172.79</v>
+      </c>
+      <c r="AA24" s="67" t="n">
+        <v>7487.45</v>
+      </c>
+      <c r="AB24" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="64">
+        <f>if(B6="DIV", F6,"")</f>
+        <v/>
+      </c>
+      <c r="AD24" s="69" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="58" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B25" s="59" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C25" s="59" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D25" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="61" t="n">
+        <v>6141.28</v>
+      </c>
+      <c r="F25" s="61" t="n">
+        <v>6141.28</v>
+      </c>
+      <c r="G25" s="59" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H25" s="60" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="I25" s="60" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="J25" s="62">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K25" s="63">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <v/>
+      </c>
+      <c r="L25" s="64">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <v/>
+      </c>
+      <c r="M25" s="64">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <v/>
+      </c>
+      <c r="N25" s="65">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <v/>
+      </c>
+      <c r="O25" s="63">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <v/>
+      </c>
+      <c r="P25" s="64">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <v/>
+      </c>
+      <c r="Q25" s="64">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <v/>
+      </c>
+      <c r="R25" s="64">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <v/>
+      </c>
+      <c r="S25" s="66">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <v/>
+      </c>
+      <c r="T25" s="67">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <v/>
+      </c>
+      <c r="U25" s="67">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <v/>
+      </c>
+      <c r="V25" s="67">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <v/>
+      </c>
+      <c r="W25" s="67" t="n">
+        <v>7504.1</v>
+      </c>
+      <c r="X25" s="87" t="n">
+        <v>45842</v>
+      </c>
+      <c r="Y25" s="66" t="n">
+        <v>0.217277</v>
+      </c>
+      <c r="Z25" s="67" t="n">
+        <v>1343.74</v>
+      </c>
+      <c r="AA25" s="67" t="n">
+        <v>7485.02</v>
+      </c>
+      <c r="AB25" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="64">
+        <f>if(B7="DIV", F7,"")</f>
+        <v/>
+      </c>
+      <c r="AD25" s="69" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="58" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B26" s="59" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C26" s="59" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D26" s="60" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" s="61" t="n">
+        <v>6302.09</v>
+      </c>
+      <c r="F26" s="61" t="n">
+        <v>12604.18</v>
+      </c>
+      <c r="G26" s="59" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H26" s="60" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="I26" s="60" t="n">
+        <v>76.19</v>
+      </c>
+      <c r="J26" s="62">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K26" s="63">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
-      <c r="L21" s="64">
+      <c r="L26" s="64">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
-      <c r="M21" s="64">
+      <c r="M26" s="64">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
-      <c r="N21" s="65">
+      <c r="N26" s="65">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
-      <c r="O21" s="63">
+      <c r="O26" s="63">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
-      <c r="P21" s="64">
+      <c r="P26" s="64">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
-      <c r="Q21" s="64">
+      <c r="Q26" s="64">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
-      <c r="R21" s="64">
+      <c r="R26" s="64">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
-      <c r="S21" s="66">
+      <c r="S26" s="66">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
-      <c r="T21" s="67">
+      <c r="T26" s="67">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
-      <c r="U21" s="67">
+      <c r="U26" s="67">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
-      <c r="V21" s="67">
+      <c r="V26" s="67">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
-      <c r="W21" s="67" t="n"/>
-      <c r="X21" s="67" t="n"/>
-      <c r="Y21" s="66">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
-        <v/>
-      </c>
-      <c r="Z21" s="67" t="n"/>
-      <c r="AA21" s="67" t="n"/>
-      <c r="AB21" s="68" t="n"/>
-      <c r="AC21" s="64">
+      <c r="W26" s="67" t="n">
+        <v>7504.1</v>
+      </c>
+      <c r="X26" s="87" t="n">
+        <v>45842</v>
+      </c>
+      <c r="Y26" s="66" t="n">
+        <v>0.186748</v>
+      </c>
+      <c r="Z26" s="67" t="n">
+        <v>2370.36</v>
+      </c>
+      <c r="AA26" s="67" t="n">
+        <v>14974.54</v>
+      </c>
+      <c r="AB26" s="68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC26" s="64">
         <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
-      <c r="AD21" s="69" t="n"/>
-    </row>
-    <row r="22">
-      <c r="E22" s="70" t="n"/>
-      <c r="F22" s="70" t="n"/>
-      <c r="G22" s="71" t="n"/>
-      <c r="J22" s="70" t="n"/>
-      <c r="K22" s="70" t="n"/>
-      <c r="L22" s="70" t="n"/>
-      <c r="M22" s="26" t="n"/>
-      <c r="W22" s="70" t="n"/>
-      <c r="X22" s="70" t="n"/>
-      <c r="Y22" s="70" t="n"/>
-      <c r="Z22" s="70" t="n"/>
-      <c r="AA22" s="70" t="n"/>
-      <c r="AB22" s="70" t="n"/>
-      <c r="AC22" s="70" t="n"/>
-    </row>
-    <row r="23">
-      <c r="E23" s="70" t="n"/>
-      <c r="F23" s="70" t="n"/>
-      <c r="G23" s="71" t="n"/>
-      <c r="J23" s="70" t="n"/>
-      <c r="K23" s="70" t="n"/>
-      <c r="L23" s="70" t="n"/>
-      <c r="M23" s="26" t="n"/>
-      <c r="W23" s="70" t="n"/>
-      <c r="X23" s="70" t="n"/>
-      <c r="Y23" s="70" t="n"/>
-      <c r="Z23" s="70" t="n"/>
-      <c r="AA23" s="70" t="n"/>
-      <c r="AB23" s="70" t="n"/>
-      <c r="AC23" s="70" t="n"/>
-    </row>
-    <row r="24">
-      <c r="E24" s="70" t="n"/>
-      <c r="F24" s="70" t="n"/>
-      <c r="G24" s="71" t="n"/>
-      <c r="J24" s="70" t="n"/>
-      <c r="K24" s="70" t="n"/>
-      <c r="L24" s="70" t="n"/>
-      <c r="M24" s="26" t="n"/>
-      <c r="W24" s="70" t="n"/>
-      <c r="X24" s="70" t="n"/>
-      <c r="Y24" s="70" t="n"/>
-      <c r="Z24" s="70" t="n"/>
-      <c r="AA24" s="70" t="n"/>
-      <c r="AB24" s="70" t="n"/>
-      <c r="AC24" s="70" t="n"/>
-    </row>
-    <row r="25">
-      <c r="E25" s="70" t="n"/>
-      <c r="F25" s="70" t="n"/>
-      <c r="G25" s="71" t="n"/>
-      <c r="J25" s="70" t="n"/>
-      <c r="K25" s="70" t="n"/>
-      <c r="L25" s="70" t="n"/>
-      <c r="M25" s="26" t="n"/>
-      <c r="W25" s="70" t="n"/>
-      <c r="X25" s="70" t="n"/>
-      <c r="Y25" s="70" t="n"/>
-      <c r="Z25" s="70" t="n"/>
-      <c r="AA25" s="70" t="n"/>
-      <c r="AB25" s="70" t="n"/>
-      <c r="AC25" s="70" t="n"/>
-    </row>
-    <row r="26">
-      <c r="E26" s="70" t="n"/>
-      <c r="F26" s="70" t="n"/>
-      <c r="G26" s="71" t="n"/>
-      <c r="J26" s="70" t="n"/>
-      <c r="K26" s="70" t="n"/>
-      <c r="L26" s="70" t="n"/>
-      <c r="M26" s="26" t="n"/>
-      <c r="W26" s="70" t="n"/>
-      <c r="X26" s="70" t="n"/>
-      <c r="Y26" s="70" t="n"/>
-      <c r="Z26" s="70" t="n"/>
-      <c r="AA26" s="70" t="n"/>
-      <c r="AB26" s="70" t="n"/>
-      <c r="AC26" s="70" t="n"/>
+      <c r="AD26" s="69" t="n"/>
     </row>
     <row r="27">
       <c r="E27" s="70" t="n"/>
@@ -45779,6 +45889,7 @@
       <c r="J958" s="70" t="n"/>
       <c r="K958" s="70" t="n"/>
       <c r="L958" s="70" t="n"/>
+      <c r="M958" s="26" t="n"/>
       <c r="W958" s="70" t="n"/>
       <c r="X958" s="70" t="n"/>
       <c r="Y958" s="70" t="n"/>
@@ -45794,6 +45905,7 @@
       <c r="J959" s="70" t="n"/>
       <c r="K959" s="70" t="n"/>
       <c r="L959" s="70" t="n"/>
+      <c r="M959" s="26" t="n"/>
       <c r="W959" s="70" t="n"/>
       <c r="X959" s="70" t="n"/>
       <c r="Y959" s="70" t="n"/>
@@ -45809,6 +45921,7 @@
       <c r="J960" s="70" t="n"/>
       <c r="K960" s="70" t="n"/>
       <c r="L960" s="70" t="n"/>
+      <c r="M960" s="26" t="n"/>
       <c r="W960" s="70" t="n"/>
       <c r="X960" s="70" t="n"/>
       <c r="Y960" s="70" t="n"/>
@@ -45824,6 +45937,7 @@
       <c r="J961" s="70" t="n"/>
       <c r="K961" s="70" t="n"/>
       <c r="L961" s="70" t="n"/>
+      <c r="M961" s="26" t="n"/>
       <c r="W961" s="70" t="n"/>
       <c r="X961" s="70" t="n"/>
       <c r="Y961" s="70" t="n"/>
@@ -45839,6 +45953,7 @@
       <c r="J962" s="70" t="n"/>
       <c r="K962" s="70" t="n"/>
       <c r="L962" s="70" t="n"/>
+      <c r="M962" s="26" t="n"/>
       <c r="W962" s="70" t="n"/>
       <c r="X962" s="70" t="n"/>
       <c r="Y962" s="70" t="n"/>
@@ -46026,6 +46141,81 @@
       <c r="AA974" s="70" t="n"/>
       <c r="AB974" s="70" t="n"/>
       <c r="AC974" s="70" t="n"/>
+    </row>
+    <row r="975">
+      <c r="E975" s="70" t="n"/>
+      <c r="F975" s="70" t="n"/>
+      <c r="G975" s="71" t="n"/>
+      <c r="J975" s="70" t="n"/>
+      <c r="K975" s="70" t="n"/>
+      <c r="L975" s="70" t="n"/>
+      <c r="W975" s="70" t="n"/>
+      <c r="X975" s="70" t="n"/>
+      <c r="Y975" s="70" t="n"/>
+      <c r="Z975" s="70" t="n"/>
+      <c r="AA975" s="70" t="n"/>
+      <c r="AB975" s="70" t="n"/>
+      <c r="AC975" s="70" t="n"/>
+    </row>
+    <row r="976">
+      <c r="E976" s="70" t="n"/>
+      <c r="F976" s="70" t="n"/>
+      <c r="G976" s="71" t="n"/>
+      <c r="J976" s="70" t="n"/>
+      <c r="K976" s="70" t="n"/>
+      <c r="L976" s="70" t="n"/>
+      <c r="W976" s="70" t="n"/>
+      <c r="X976" s="70" t="n"/>
+      <c r="Y976" s="70" t="n"/>
+      <c r="Z976" s="70" t="n"/>
+      <c r="AA976" s="70" t="n"/>
+      <c r="AB976" s="70" t="n"/>
+      <c r="AC976" s="70" t="n"/>
+    </row>
+    <row r="977">
+      <c r="E977" s="70" t="n"/>
+      <c r="F977" s="70" t="n"/>
+      <c r="G977" s="71" t="n"/>
+      <c r="J977" s="70" t="n"/>
+      <c r="K977" s="70" t="n"/>
+      <c r="L977" s="70" t="n"/>
+      <c r="W977" s="70" t="n"/>
+      <c r="X977" s="70" t="n"/>
+      <c r="Y977" s="70" t="n"/>
+      <c r="Z977" s="70" t="n"/>
+      <c r="AA977" s="70" t="n"/>
+      <c r="AB977" s="70" t="n"/>
+      <c r="AC977" s="70" t="n"/>
+    </row>
+    <row r="978">
+      <c r="E978" s="70" t="n"/>
+      <c r="F978" s="70" t="n"/>
+      <c r="G978" s="71" t="n"/>
+      <c r="J978" s="70" t="n"/>
+      <c r="K978" s="70" t="n"/>
+      <c r="L978" s="70" t="n"/>
+      <c r="W978" s="70" t="n"/>
+      <c r="X978" s="70" t="n"/>
+      <c r="Y978" s="70" t="n"/>
+      <c r="Z978" s="70" t="n"/>
+      <c r="AA978" s="70" t="n"/>
+      <c r="AB978" s="70" t="n"/>
+      <c r="AC978" s="70" t="n"/>
+    </row>
+    <row r="979">
+      <c r="E979" s="70" t="n"/>
+      <c r="F979" s="70" t="n"/>
+      <c r="G979" s="71" t="n"/>
+      <c r="J979" s="70" t="n"/>
+      <c r="K979" s="70" t="n"/>
+      <c r="L979" s="70" t="n"/>
+      <c r="W979" s="70" t="n"/>
+      <c r="X979" s="70" t="n"/>
+      <c r="Y979" s="70" t="n"/>
+      <c r="Z979" s="70" t="n"/>
+      <c r="AA979" s="70" t="n"/>
+      <c r="AB979" s="70" t="n"/>
+      <c r="AC979" s="70" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$38"/>

--- a/dumps/Stocks/Apollo Hospitals Enterprise Ltd.xlsx
+++ b/dumps/Stocks/Apollo Hospitals Enterprise Ltd.xlsx
@@ -29545,7 +29545,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP980"/>
+  <dimension ref="A1:AP981"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -29895,7 +29895,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1" s="63">
       <c r="A5" s="71" t="n">
-        <v>46062</v>
+        <v>46059</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -29911,21 +29911,18 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>7184.5</v>
+        <v>7070.5</v>
       </c>
       <c r="F5" t="n">
-        <v>7235.37</v>
+        <v>7105.85</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>7.16</v>
-      </c>
       <c r="I5" t="n">
-        <v>43.71</v>
+        <v>35.35</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -29933,8 +29930,8 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" s="63">
-      <c r="A6" s="57" t="n">
-        <v>46059</v>
+      <c r="A6" s="71" t="n">
+        <v>46062</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -29950,25 +29947,30 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>7120.57</v>
+        <v>7184.5</v>
       </c>
       <c r="F6" t="n">
-        <v>7120.57</v>
+        <v>7235.37</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611665409</t>
         </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="I6" t="n">
+        <v>43.71</v>
       </c>
       <c r="J6">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="X6" s="57" t="n"/>
     </row>
     <row r="7" ht="15.75" customHeight="1" s="63">
       <c r="A7" s="57" t="n">
-        <v>45842</v>
+        <v>46059</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -29977,23 +29979,28 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>7504.1</v>
+        <v>7120.57</v>
       </c>
       <c r="F7" t="n">
-        <v>7504.1</v>
+        <v>7120.57</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
+      <c r="J7">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="X7" s="57" t="n"/>
     </row>
     <row r="8" ht="15.75" customHeight="1" s="63">
       <c r="A8" s="57" t="n">
@@ -30068,13 +30075,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>7504.1</v>
       </c>
       <c r="F10" t="n">
-        <v>15008.2</v>
+        <v>7504.1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -30083,8 +30090,8 @@
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="63">
-      <c r="A11" s="56" t="n">
-        <v>46052</v>
+      <c r="A11" s="57" t="n">
+        <v>45842</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -30093,34 +30100,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>6787</v>
+        <v>7504.1</v>
       </c>
       <c r="F11" t="n">
-        <v>20504.91</v>
+        <v>15008.2</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H11" t="n">
-        <v>20</v>
-      </c>
-      <c r="I11" t="n">
-        <v>123.91</v>
-      </c>
-      <c r="X11" s="57" t="n"/>
     </row>
     <row r="12" ht="15.75" customHeight="1" s="63">
       <c r="A12" s="56" t="n">
-        <v>46050</v>
+        <v>46052</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -30133,13 +30133,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>6867.5</v>
+        <v>6787</v>
       </c>
       <c r="F12" t="n">
-        <v>6916.25</v>
+        <v>20504.91</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -30147,16 +30147,16 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6.91</v>
+        <v>20</v>
       </c>
       <c r="I12" t="n">
-        <v>41.84</v>
+        <v>123.91</v>
       </c>
       <c r="X12" s="57" t="n"/>
     </row>
     <row r="13" ht="15.75" customHeight="1" s="63">
       <c r="A13" s="56" t="n">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -30172,10 +30172,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>6785.5</v>
+        <v>6867.5</v>
       </c>
       <c r="F13" t="n">
-        <v>6833.62</v>
+        <v>6916.25</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -30183,16 +30183,16 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6.79</v>
+        <v>6.91</v>
       </c>
       <c r="I13" t="n">
-        <v>41.33</v>
+        <v>41.84</v>
       </c>
       <c r="X13" s="57" t="n"/>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="63">
       <c r="A14" s="56" t="n">
-        <v>46044</v>
+        <v>46049</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -30208,10 +30208,10 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>6892.5</v>
+        <v>6785.5</v>
       </c>
       <c r="F14" t="n">
-        <v>6941.39</v>
+        <v>6833.62</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -30219,16 +30219,16 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6.91</v>
+        <v>6.79</v>
       </c>
       <c r="I14" t="n">
-        <v>41.98</v>
+        <v>41.33</v>
       </c>
       <c r="X14" s="57" t="n"/>
     </row>
     <row r="15" ht="15.75" customHeight="1" s="63">
       <c r="A15" s="56" t="n">
-        <v>46043</v>
+        <v>46044</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -30244,10 +30244,10 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>6880</v>
+        <v>6892.5</v>
       </c>
       <c r="F15" t="n">
-        <v>6928.47</v>
+        <v>6941.39</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -30255,16 +30255,16 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6.77</v>
+        <v>6.91</v>
       </c>
       <c r="I15" t="n">
-        <v>41.7</v>
+        <v>41.98</v>
       </c>
       <c r="X15" s="57" t="n"/>
     </row>
     <row r="16" ht="15.75" customHeight="1" s="63">
       <c r="A16" s="56" t="n">
-        <v>46034</v>
+        <v>46043</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -30280,10 +30280,10 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>7167</v>
+        <v>6880</v>
       </c>
       <c r="F16" t="n">
-        <v>7217.83</v>
+        <v>6928.47</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -30291,16 +30291,16 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>7.19</v>
+        <v>6.77</v>
       </c>
       <c r="I16" t="n">
-        <v>43.64</v>
+        <v>41.7</v>
       </c>
       <c r="X16" s="57" t="n"/>
     </row>
     <row r="17" ht="15.75" customHeight="1" s="63">
       <c r="A17" s="56" t="n">
-        <v>46022</v>
+        <v>46034</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -30316,10 +30316,10 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>6990</v>
+        <v>7167</v>
       </c>
       <c r="F17" t="n">
-        <v>7039.54</v>
+        <v>7217.83</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -30327,16 +30327,16 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>6.96</v>
+        <v>7.19</v>
       </c>
       <c r="I17" t="n">
-        <v>42.58</v>
+        <v>43.64</v>
       </c>
       <c r="X17" s="57" t="n"/>
     </row>
     <row r="18" ht="15.75" customHeight="1" s="63">
       <c r="A18" s="56" t="n">
-        <v>46014</v>
+        <v>46022</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -30352,10 +30352,10 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>7047.5</v>
+        <v>6990</v>
       </c>
       <c r="F18" t="n">
-        <v>7097.43</v>
+        <v>7039.54</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -30363,16 +30363,16 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>7.01</v>
+        <v>6.96</v>
       </c>
       <c r="I18" t="n">
-        <v>42.92</v>
+        <v>42.58</v>
       </c>
       <c r="X18" s="57" t="n"/>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="63">
       <c r="A19" s="56" t="n">
-        <v>46009</v>
+        <v>46014</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -30388,10 +30388,10 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>6884</v>
+        <v>7047.5</v>
       </c>
       <c r="F19" t="n">
-        <v>6932.77</v>
+        <v>7097.43</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -30399,16 +30399,16 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>6.88</v>
+        <v>7.01</v>
       </c>
       <c r="I19" t="n">
-        <v>41.89</v>
+        <v>42.92</v>
       </c>
       <c r="X19" s="57" t="n"/>
     </row>
     <row r="20" ht="15.75" customHeight="1" s="63">
       <c r="A20" s="56" t="n">
-        <v>46008</v>
+        <v>46009</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -30424,10 +30424,10 @@
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>6926</v>
+        <v>6884</v>
       </c>
       <c r="F20" t="n">
-        <v>6975.08</v>
+        <v>6932.77</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -30435,16 +30435,16 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>6.96</v>
+        <v>6.88</v>
       </c>
       <c r="I20" t="n">
-        <v>42.12</v>
+        <v>41.89</v>
       </c>
       <c r="X20" s="57" t="n"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="63">
       <c r="A21" s="56" t="n">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -30460,10 +30460,10 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>7123</v>
+        <v>6926</v>
       </c>
       <c r="F21" t="n">
-        <v>7173.51</v>
+        <v>6975.08</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -30471,20 +30471,20 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>7.1</v>
+        <v>6.96</v>
       </c>
       <c r="I21" t="n">
-        <v>43.41</v>
+        <v>42.12</v>
       </c>
       <c r="X21" s="57" t="n"/>
     </row>
     <row r="22" ht="15.75" customHeight="1" s="63">
       <c r="A22" s="56" t="n">
-        <v>46006</v>
+        <v>46007</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -30496,10 +30496,10 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>7053.95</v>
+        <v>7123</v>
       </c>
       <c r="F22" t="n">
-        <v>7104.06</v>
+        <v>7173.51</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -30507,20 +30507,20 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>7.08</v>
+        <v>7.1</v>
       </c>
       <c r="I22" t="n">
-        <v>43.03</v>
+        <v>43.41</v>
       </c>
       <c r="X22" s="57" t="n"/>
     </row>
     <row r="23" ht="15.75" customHeight="1" s="63">
       <c r="A23" s="56" t="n">
-        <v>45996</v>
+        <v>46006</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -30532,10 +30532,10 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>7172.5</v>
+        <v>7053.95</v>
       </c>
       <c r="F23" t="n">
-        <v>7223.34</v>
+        <v>7104.06</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -30543,125 +30543,52 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>7.14</v>
+        <v>7.08</v>
       </c>
       <c r="I23" t="n">
-        <v>43.7</v>
+        <v>43.03</v>
       </c>
       <c r="X23" s="57" t="n"/>
     </row>
     <row r="24" ht="15.75" customHeight="1" s="63">
-      <c r="A24" s="42" t="n">
-        <v>45734</v>
-      </c>
-      <c r="B24" s="43" t="inlineStr">
+      <c r="A24" s="56" t="n">
+        <v>45996</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C24" s="43" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D24" s="44" t="n">
+      <c r="D24" t="n">
         <v>1</v>
       </c>
-      <c r="E24" s="45" t="n">
-        <v>6292.54</v>
-      </c>
-      <c r="F24" s="45">
-        <f>#REF!*#REF!</f>
-        <v/>
-      </c>
-      <c r="G24" s="43" t="inlineStr">
+      <c r="E24" t="n">
+        <v>7172.5</v>
+      </c>
+      <c r="F24" t="n">
+        <v>7223.34</v>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H24" s="44" t="n"/>
-      <c r="I24" s="44" t="n">
-        <v>44.34</v>
-      </c>
-      <c r="J24" s="46">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K24" s="47">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!/ SUM(#REF!), "")</f>
-        <v/>
-      </c>
-      <c r="L24" s="48">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
-        <v/>
-      </c>
-      <c r="M24" s="48">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), ((#REF!*#REF!)+#REF!), "")</f>
-        <v/>
-      </c>
-      <c r="N24" s="49">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!, "")</f>
-        <v/>
-      </c>
-      <c r="O24" s="47">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!/ SUM(#REF!), "")</f>
-        <v/>
-      </c>
-      <c r="P24" s="48">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
-        <v/>
-      </c>
-      <c r="Q24" s="48">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), ((#REF!*#REF!)+#REF!), "")</f>
-        <v/>
-      </c>
-      <c r="R24" s="48">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!, "")</f>
-        <v/>
-      </c>
-      <c r="S24" s="50">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!/ SUM(#REF!), "")</f>
-        <v/>
-      </c>
-      <c r="T24" s="51">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
-        <v/>
-      </c>
-      <c r="U24" s="51">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), ((#REF!*#REF!)+#REF!), "")</f>
-        <v/>
-      </c>
-      <c r="V24" s="51">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
-        <v/>
-      </c>
-      <c r="W24" s="51" t="n">
-        <v>7504.1</v>
-      </c>
-      <c r="X24" s="58" t="n">
-        <v>45842</v>
-      </c>
-      <c r="Y24" s="50" t="n">
-        <v>26.941813</v>
-      </c>
-      <c r="Z24" s="51" t="n">
-        <v>1194.6</v>
-      </c>
-      <c r="AA24" s="51" t="n">
-        <v>7487.14</v>
-      </c>
-      <c r="AB24" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC24" s="48">
-        <f>IF(#REF!="DIV",#REF!, "")</f>
-        <v/>
-      </c>
-      <c r="AD24" s="53" t="n"/>
+      <c r="H24" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="I24" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="X24" s="57" t="n"/>
     </row>
     <row r="25" ht="15.75" customHeight="1" s="63">
       <c r="A25" s="42" t="n">
-        <v>45722</v>
+        <v>45734</v>
       </c>
       <c r="B25" s="43" t="inlineStr">
         <is>
@@ -30677,21 +30604,20 @@
         <v>1</v>
       </c>
       <c r="E25" s="45" t="n">
-        <v>6314.66</v>
-      </c>
-      <c r="F25" s="45" t="n">
-        <v>6314.66</v>
+        <v>6292.54</v>
+      </c>
+      <c r="F25" s="45">
+        <f>#REF!*#REF!</f>
+        <v/>
       </c>
       <c r="G25" s="43" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H25" s="44" t="n">
-        <v>6.3</v>
-      </c>
+      <c r="H25" s="44" t="n"/>
       <c r="I25" s="44" t="n">
-        <v>38.16</v>
+        <v>44.34</v>
       </c>
       <c r="J25" s="46">
         <f>Index!$C$2</f>
@@ -30752,13 +30678,13 @@
         <v>45842</v>
       </c>
       <c r="Y25" s="50" t="n">
-        <v>0.184426</v>
+        <v>26.941813</v>
       </c>
       <c r="Z25" s="51" t="n">
-        <v>1172.79</v>
+        <v>1194.6</v>
       </c>
       <c r="AA25" s="51" t="n">
-        <v>7487.45</v>
+        <v>7487.14</v>
       </c>
       <c r="AB25" s="52" t="n">
         <v>1</v>
@@ -30771,7 +30697,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1" s="63">
       <c r="A26" s="42" t="n">
-        <v>45716</v>
+        <v>45722</v>
       </c>
       <c r="B26" s="43" t="inlineStr">
         <is>
@@ -30787,10 +30713,10 @@
         <v>1</v>
       </c>
       <c r="E26" s="45" t="n">
-        <v>6141.28</v>
+        <v>6314.66</v>
       </c>
       <c r="F26" s="45" t="n">
-        <v>6141.28</v>
+        <v>6314.66</v>
       </c>
       <c r="G26" s="43" t="inlineStr">
         <is>
@@ -30798,10 +30724,10 @@
         </is>
       </c>
       <c r="H26" s="44" t="n">
-        <v>6.08</v>
+        <v>6.3</v>
       </c>
       <c r="I26" s="44" t="n">
-        <v>37.1</v>
+        <v>38.16</v>
       </c>
       <c r="J26" s="46">
         <f>Index!$C$2</f>
@@ -30862,13 +30788,13 @@
         <v>45842</v>
       </c>
       <c r="Y26" s="50" t="n">
-        <v>0.217277</v>
+        <v>0.184426</v>
       </c>
       <c r="Z26" s="51" t="n">
-        <v>1343.74</v>
+        <v>1172.79</v>
       </c>
       <c r="AA26" s="51" t="n">
-        <v>7485.02</v>
+        <v>7487.45</v>
       </c>
       <c r="AB26" s="52" t="n">
         <v>1</v>
@@ -30881,7 +30807,7 @@
     </row>
     <row r="27" ht="15.75" customHeight="1" s="63">
       <c r="A27" s="42" t="n">
-        <v>45712</v>
+        <v>45716</v>
       </c>
       <c r="B27" s="43" t="inlineStr">
         <is>
@@ -30894,13 +30820,13 @@
         </is>
       </c>
       <c r="D27" s="44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="45" t="n">
-        <v>6302.09</v>
+        <v>6141.28</v>
       </c>
       <c r="F27" s="45" t="n">
-        <v>12604.18</v>
+        <v>6141.28</v>
       </c>
       <c r="G27" s="43" t="inlineStr">
         <is>
@@ -30908,10 +30834,10 @@
         </is>
       </c>
       <c r="H27" s="44" t="n">
-        <v>12.49</v>
+        <v>6.08</v>
       </c>
       <c r="I27" s="44" t="n">
-        <v>76.19</v>
+        <v>37.1</v>
       </c>
       <c r="J27" s="46">
         <f>Index!$C$2</f>
@@ -30972,16 +30898,16 @@
         <v>45842</v>
       </c>
       <c r="Y27" s="50" t="n">
-        <v>0.186748</v>
+        <v>0.217277</v>
       </c>
       <c r="Z27" s="51" t="n">
-        <v>2370.36</v>
+        <v>1343.74</v>
       </c>
       <c r="AA27" s="51" t="n">
-        <v>14974.54</v>
+        <v>7485.02</v>
       </c>
       <c r="AB27" s="52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC27" s="48">
         <f>IF(#REF!="DIV",#REF!, "")</f>
@@ -30990,20 +30916,114 @@
       <c r="AD27" s="53" t="n"/>
     </row>
     <row r="28" ht="15.75" customHeight="1" s="63">
-      <c r="E28" s="54" t="n"/>
-      <c r="F28" s="54" t="n"/>
-      <c r="G28" s="55" t="n"/>
-      <c r="J28" s="54" t="n"/>
-      <c r="K28" s="54" t="n"/>
-      <c r="L28" s="54" t="n"/>
-      <c r="M28" s="1" t="n"/>
-      <c r="W28" s="54" t="n"/>
-      <c r="X28" s="54" t="n"/>
-      <c r="Y28" s="54" t="n"/>
-      <c r="Z28" s="54" t="n"/>
-      <c r="AA28" s="54" t="n"/>
-      <c r="AB28" s="54" t="n"/>
-      <c r="AC28" s="54" t="n"/>
+      <c r="A28" s="42" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B28" s="43" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C28" s="43" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D28" s="44" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" s="45" t="n">
+        <v>6302.09</v>
+      </c>
+      <c r="F28" s="45" t="n">
+        <v>12604.18</v>
+      </c>
+      <c r="G28" s="43" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H28" s="44" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="I28" s="44" t="n">
+        <v>76.19</v>
+      </c>
+      <c r="J28" s="46">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K28" s="47">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!/ SUM(#REF!), "")</f>
+        <v/>
+      </c>
+      <c r="L28" s="48">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <v/>
+      </c>
+      <c r="M28" s="48">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), ((#REF!*#REF!)+#REF!), "")</f>
+        <v/>
+      </c>
+      <c r="N28" s="49">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!, "")</f>
+        <v/>
+      </c>
+      <c r="O28" s="47">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!/ SUM(#REF!), "")</f>
+        <v/>
+      </c>
+      <c r="P28" s="48">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <v/>
+      </c>
+      <c r="Q28" s="48">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), ((#REF!*#REF!)+#REF!), "")</f>
+        <v/>
+      </c>
+      <c r="R28" s="48">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!, "")</f>
+        <v/>
+      </c>
+      <c r="S28" s="50">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!/ SUM(#REF!), "")</f>
+        <v/>
+      </c>
+      <c r="T28" s="51">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <v/>
+      </c>
+      <c r="U28" s="51">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), ((#REF!*#REF!)+#REF!), "")</f>
+        <v/>
+      </c>
+      <c r="V28" s="51">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
+        <v/>
+      </c>
+      <c r="W28" s="51" t="n">
+        <v>7504.1</v>
+      </c>
+      <c r="X28" s="58" t="n">
+        <v>45842</v>
+      </c>
+      <c r="Y28" s="50" t="n">
+        <v>0.186748</v>
+      </c>
+      <c r="Z28" s="51" t="n">
+        <v>2370.36</v>
+      </c>
+      <c r="AA28" s="51" t="n">
+        <v>14974.54</v>
+      </c>
+      <c r="AB28" s="52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC28" s="48">
+        <f>IF(#REF!="DIV",#REF!, "")</f>
+        <v/>
+      </c>
+      <c r="AD28" s="53" t="n"/>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="63">
       <c r="E29" s="54" t="n"/>
@@ -45972,6 +45992,7 @@
       <c r="J964" s="54" t="n"/>
       <c r="K964" s="54" t="n"/>
       <c r="L964" s="54" t="n"/>
+      <c r="M964" s="1" t="n"/>
       <c r="W964" s="54" t="n"/>
       <c r="X964" s="54" t="n"/>
       <c r="Y964" s="54" t="n"/>
@@ -46219,6 +46240,21 @@
       <c r="AA980" s="54" t="n"/>
       <c r="AB980" s="54" t="n"/>
       <c r="AC980" s="54" t="n"/>
+    </row>
+    <row r="981">
+      <c r="E981" s="54" t="n"/>
+      <c r="F981" s="54" t="n"/>
+      <c r="G981" s="55" t="n"/>
+      <c r="J981" s="54" t="n"/>
+      <c r="K981" s="54" t="n"/>
+      <c r="L981" s="54" t="n"/>
+      <c r="W981" s="54" t="n"/>
+      <c r="X981" s="54" t="n"/>
+      <c r="Y981" s="54" t="n"/>
+      <c r="Z981" s="54" t="n"/>
+      <c r="AA981" s="54" t="n"/>
+      <c r="AB981" s="54" t="n"/>
+      <c r="AC981" s="54" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:AO24"/>

--- a/dumps/Stocks/Apollo Hospitals Enterprise Ltd.xlsx
+++ b/dumps/Stocks/Apollo Hospitals Enterprise Ltd.xlsx
@@ -200,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -428,6 +428,9 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -29592,7 +29595,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP975"/>
+  <dimension ref="A1:AP980"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -29942,7 +29945,7 @@
     </row>
     <row r="5">
       <c r="A5" s="84" t="n">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -29958,18 +29961,18 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>7070.5</v>
+        <v>7184.5</v>
       </c>
       <c r="F5" t="n">
-        <v>7105.85</v>
+        <v>7220.42</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611604850</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>35.35</v>
+        <v>35.92</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -29978,7 +29981,7 @@
     </row>
     <row r="6">
       <c r="A6" s="84" t="n">
-        <v>46052</v>
+        <v>45842</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -29987,34 +29990,27 @@
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>6787</v>
+        <v>7504.1</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>20462.82</v>
+        <v>15008.2</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>CN#252611220723</t>
+          <t>~</t>
         </is>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>101.82</v>
-      </c>
-      <c r="J6" s="0">
-        <f>Index!$C$2</f>
-        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="84" t="n">
-        <v>46050</v>
+        <v>45842</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -30023,34 +30019,27 @@
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>6867.5</v>
+        <v>7504.1</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>6901.84</v>
+        <v>7504.1</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>CN#252611091662</t>
+          <t>~</t>
         </is>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>34.34</v>
-      </c>
-      <c r="J7" s="0">
-        <f>Index!$C$2</f>
-        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="84" t="n">
-        <v>46049</v>
+        <v>45842</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -30059,34 +30048,27 @@
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>6785.5</v>
+        <v>7504.1</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>6819.43</v>
+        <v>7504.1</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>CN#252611030591</t>
+          <t>~</t>
         </is>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>33.93</v>
-      </c>
-      <c r="J8" s="0">
-        <f>Index!$C$2</f>
-        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="84" t="n">
-        <v>46044</v>
+        <v>45842</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -30095,34 +30077,27 @@
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>6892.5</v>
+        <v>7504.1</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>6926.96</v>
+        <v>7504.1</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>CN#252610906344</t>
+          <t>~</t>
         </is>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>34.46</v>
-      </c>
-      <c r="J9" s="0">
-        <f>Index!$C$2</f>
-        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="84" t="n">
-        <v>46043</v>
+        <v>46059</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -30138,18 +30113,18 @@
         <v>1</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>6880</v>
+        <v>7070.5</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>6914.4</v>
+        <v>7105.85</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>CN#252610844888</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
       <c r="I10" s="0" t="n">
-        <v>34.4</v>
+        <v>35.35</v>
       </c>
       <c r="J10" s="0">
         <f>Index!$C$2</f>
@@ -30158,7 +30133,7 @@
     </row>
     <row r="11">
       <c r="A11" s="84" t="n">
-        <v>46034</v>
+        <v>46052</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -30171,21 +30146,21 @@
         </is>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>7167</v>
+        <v>6787</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>7202.84</v>
+        <v>20462.82</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>CN#252610469431</t>
+          <t>CN#252611220723</t>
         </is>
       </c>
       <c r="I11" s="0" t="n">
-        <v>35.84</v>
+        <v>101.82</v>
       </c>
       <c r="J11" s="0">
         <f>Index!$C$2</f>
@@ -30194,7 +30169,7 @@
     </row>
     <row r="12">
       <c r="A12" s="84" t="n">
-        <v>46022</v>
+        <v>46050</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -30210,18 +30185,18 @@
         <v>1</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>6990</v>
+        <v>6867.5</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>7024.95</v>
+        <v>6901.84</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>CN#252609981253</t>
+          <t>CN#252611091662</t>
         </is>
       </c>
       <c r="I12" s="0" t="n">
-        <v>34.95</v>
+        <v>34.34</v>
       </c>
       <c r="J12" s="0">
         <f>Index!$C$2</f>
@@ -30230,7 +30205,7 @@
     </row>
     <row r="13">
       <c r="A13" s="84" t="n">
-        <v>46014</v>
+        <v>46049</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
@@ -30246,18 +30221,18 @@
         <v>1</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>7047.5</v>
+        <v>6785.5</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>7082.74</v>
+        <v>6819.43</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
-          <t>CN#252609701573</t>
+          <t>CN#252611030591</t>
         </is>
       </c>
       <c r="I13" s="0" t="n">
-        <v>35.24</v>
+        <v>33.93</v>
       </c>
       <c r="J13" s="0">
         <f>Index!$C$2</f>
@@ -30266,7 +30241,7 @@
     </row>
     <row r="14">
       <c r="A14" s="84" t="n">
-        <v>46009</v>
+        <v>46044</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
@@ -30282,18 +30257,18 @@
         <v>1</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>6884</v>
+        <v>6892.5</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>6918.42</v>
+        <v>6926.96</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
-          <t>CN#252609527272</t>
+          <t>CN#252610906344</t>
         </is>
       </c>
       <c r="I14" s="0" t="n">
-        <v>34.42</v>
+        <v>34.46</v>
       </c>
       <c r="J14" s="0">
         <f>Index!$C$2</f>
@@ -30302,7 +30277,7 @@
     </row>
     <row r="15">
       <c r="A15" s="84" t="n">
-        <v>46008</v>
+        <v>46043</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
@@ -30318,18 +30293,18 @@
         <v>1</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>6926</v>
+        <v>6880</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>6960.63</v>
+        <v>6914.4</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
-          <t>CN#252609476500</t>
+          <t>CN#252610844888</t>
         </is>
       </c>
       <c r="I15" s="0" t="n">
-        <v>34.63</v>
+        <v>34.4</v>
       </c>
       <c r="J15" s="0">
         <f>Index!$C$2</f>
@@ -30338,7 +30313,7 @@
     </row>
     <row r="16">
       <c r="A16" s="84" t="n">
-        <v>46007</v>
+        <v>46034</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
@@ -30354,18 +30329,18 @@
         <v>1</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>7123</v>
+        <v>7167</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>7158.62</v>
+        <v>7202.84</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>CN#252609425003</t>
+          <t>CN#252610469431</t>
         </is>
       </c>
       <c r="I16" s="0" t="n">
-        <v>35.62</v>
+        <v>35.84</v>
       </c>
       <c r="J16" s="0">
         <f>Index!$C$2</f>
@@ -30374,11 +30349,11 @@
     </row>
     <row r="17">
       <c r="A17" s="84" t="n">
-        <v>46006</v>
+        <v>46022</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
@@ -30390,18 +30365,18 @@
         <v>1</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>7053.95</v>
+        <v>6990</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>7089.22</v>
+        <v>7024.95</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>CN#252609372767</t>
+          <t>CN#252609981253</t>
         </is>
       </c>
       <c r="I17" s="0" t="n">
-        <v>35.27</v>
+        <v>34.95</v>
       </c>
       <c r="J17" s="0">
         <f>Index!$C$2</f>
@@ -30410,7 +30385,7 @@
     </row>
     <row r="18">
       <c r="A18" s="84" t="n">
-        <v>45996</v>
+        <v>46014</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
@@ -30426,506 +30401,642 @@
         <v>1</v>
       </c>
       <c r="E18" s="0" t="n">
+        <v>7047.5</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>7082.74</v>
+      </c>
+      <c r="G18" s="0" t="inlineStr">
+        <is>
+          <t>CN#252609701573</t>
+        </is>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>35.24</v>
+      </c>
+      <c r="J18" s="0">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="84" t="n">
+        <v>46009</v>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>6884</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>6918.42</v>
+      </c>
+      <c r="G19" s="0" t="inlineStr">
+        <is>
+          <t>CN#252609527272</t>
+        </is>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>34.42</v>
+      </c>
+      <c r="J19" s="0">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="84" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>6926</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>6960.63</v>
+      </c>
+      <c r="G20" s="0" t="inlineStr">
+        <is>
+          <t>CN#252609476500</t>
+        </is>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>34.63</v>
+      </c>
+      <c r="J20" s="0">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="84" t="n">
+        <v>46007</v>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>7123</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>7158.62</v>
+      </c>
+      <c r="G21" s="0" t="inlineStr">
+        <is>
+          <t>CN#252609425003</t>
+        </is>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>35.62</v>
+      </c>
+      <c r="J21" s="0">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="84" t="n">
+        <v>46006</v>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>7053.95</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>7089.22</v>
+      </c>
+      <c r="G22" s="0" t="inlineStr">
+        <is>
+          <t>CN#252609372767</t>
+        </is>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>35.27</v>
+      </c>
+      <c r="J22" s="0">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="84" t="n">
+        <v>45996</v>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="0" t="n">
         <v>7172.5</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F23" s="0" t="n">
         <v>7208.36</v>
       </c>
-      <c r="G18" s="0" t="inlineStr">
+      <c r="G23" s="0" t="inlineStr">
         <is>
           <t>CN#252609039305</t>
         </is>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I23" s="0" t="n">
         <v>35.86</v>
       </c>
-      <c r="J18" s="0">
+      <c r="J23" s="0">
         <f>Index!$C$2</f>
         <v/>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="58" t="n">
+    <row r="24">
+      <c r="A24" s="58" t="n">
         <v>45734</v>
       </c>
-      <c r="B19" s="59" t="inlineStr">
+      <c r="B24" s="59" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C19" s="59" t="inlineStr">
+      <c r="C24" s="59" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D19" s="60" t="n">
+      <c r="D24" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="E19" s="61" t="n">
+      <c r="E24" s="61" t="n">
         <v>6292.54</v>
       </c>
-      <c r="F19" s="61">
+      <c r="F24" s="61">
         <f>D5*E5</f>
         <v/>
       </c>
-      <c r="G19" s="59" t="inlineStr">
+      <c r="G24" s="59" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H19" s="60" t="n"/>
-      <c r="I19" s="60" t="n">
+      <c r="H24" s="60" t="n"/>
+      <c r="I24" s="60" t="n">
         <v>44.34</v>
       </c>
-      <c r="J19" s="62">
+      <c r="J24" s="62">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K19" s="63">
+      <c r="K24" s="63">
         <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
-      <c r="L19" s="64">
+      <c r="L24" s="64">
         <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
-      <c r="M19" s="64">
+      <c r="M24" s="64">
         <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
-      <c r="N19" s="65">
+      <c r="N24" s="65">
         <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
-      <c r="O19" s="63">
+      <c r="O24" s="63">
         <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
-      <c r="P19" s="64">
+      <c r="P24" s="64">
         <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
-      <c r="Q19" s="64">
+      <c r="Q24" s="64">
         <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
-      <c r="R19" s="64">
+      <c r="R24" s="64">
         <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
-      <c r="S19" s="66">
+      <c r="S24" s="66">
         <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
-      <c r="T19" s="67">
+      <c r="T24" s="67">
         <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
-      <c r="U19" s="67">
+      <c r="U24" s="67">
         <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
-      <c r="V19" s="67">
+      <c r="V24" s="67">
         <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
-      <c r="W19" s="67" t="n"/>
-      <c r="X19" s="67" t="n"/>
-      <c r="Y19" s="66">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z19" s="67" t="n"/>
-      <c r="AA19" s="67" t="n"/>
-      <c r="AB19" s="68" t="n"/>
-      <c r="AC19" s="64">
+      <c r="W24" s="67" t="n">
+        <v>7504.1</v>
+      </c>
+      <c r="X24" s="85" t="n">
+        <v>45842</v>
+      </c>
+      <c r="Y24" s="66" t="n">
+        <v>26.941813</v>
+      </c>
+      <c r="Z24" s="67" t="n">
+        <v>1194.6</v>
+      </c>
+      <c r="AA24" s="67" t="n">
+        <v>7487.14</v>
+      </c>
+      <c r="AB24" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="64">
         <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
-      <c r="AD19" s="69" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="58" t="n">
+      <c r="AD24" s="69" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="58" t="n">
         <v>45722</v>
       </c>
-      <c r="B20" s="59" t="inlineStr">
+      <c r="B25" s="59" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C20" s="59" t="inlineStr">
+      <c r="C25" s="59" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D20" s="60" t="n">
+      <c r="D25" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="E20" s="61" t="n">
+      <c r="E25" s="61" t="n">
         <v>6314.66</v>
       </c>
-      <c r="F20" s="61" t="n">
+      <c r="F25" s="61" t="n">
         <v>6314.66</v>
       </c>
-      <c r="G20" s="59" t="inlineStr">
+      <c r="G25" s="59" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H20" s="60" t="n">
+      <c r="H25" s="60" t="n">
         <v>6.3</v>
       </c>
-      <c r="I20" s="60" t="n">
+      <c r="I25" s="60" t="n">
         <v>38.16</v>
       </c>
-      <c r="J20" s="62">
+      <c r="J25" s="62">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K20" s="63">
+      <c r="K25" s="63">
         <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
-      <c r="L20" s="64">
+      <c r="L25" s="64">
         <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
-      <c r="M20" s="64">
+      <c r="M25" s="64">
         <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
-      <c r="N20" s="65">
+      <c r="N25" s="65">
         <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
-      <c r="O20" s="63">
+      <c r="O25" s="63">
         <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
-      <c r="P20" s="64">
+      <c r="P25" s="64">
         <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
-      <c r="Q20" s="64">
+      <c r="Q25" s="64">
         <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
-      <c r="R20" s="64">
+      <c r="R25" s="64">
         <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
-      <c r="S20" s="66">
+      <c r="S25" s="66">
         <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
-      <c r="T20" s="67">
+      <c r="T25" s="67">
         <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
-      <c r="U20" s="67">
+      <c r="U25" s="67">
         <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
-      <c r="V20" s="67">
+      <c r="V25" s="67">
         <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
-      <c r="W20" s="67" t="n"/>
-      <c r="X20" s="67" t="n"/>
-      <c r="Y20" s="66">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="Z20" s="67" t="n"/>
-      <c r="AA20" s="67" t="n"/>
-      <c r="AB20" s="68" t="n"/>
-      <c r="AC20" s="64">
+      <c r="W25" s="67" t="n">
+        <v>7504.1</v>
+      </c>
+      <c r="X25" s="85" t="n">
+        <v>45842</v>
+      </c>
+      <c r="Y25" s="66" t="n">
+        <v>0.184426</v>
+      </c>
+      <c r="Z25" s="67" t="n">
+        <v>1172.79</v>
+      </c>
+      <c r="AA25" s="67" t="n">
+        <v>7487.45</v>
+      </c>
+      <c r="AB25" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="64">
         <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
-      <c r="AD20" s="69" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="58" t="n">
+      <c r="AD25" s="69" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="58" t="n">
         <v>45716</v>
       </c>
-      <c r="B21" s="59" t="inlineStr">
+      <c r="B26" s="59" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C21" s="59" t="inlineStr">
+      <c r="C26" s="59" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D21" s="60" t="n">
+      <c r="D26" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="E21" s="61" t="n">
+      <c r="E26" s="61" t="n">
         <v>6141.28</v>
       </c>
-      <c r="F21" s="61" t="n">
+      <c r="F26" s="61" t="n">
         <v>6141.28</v>
       </c>
-      <c r="G21" s="59" t="inlineStr">
+      <c r="G26" s="59" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H21" s="60" t="n">
+      <c r="H26" s="60" t="n">
         <v>6.08</v>
       </c>
-      <c r="I21" s="60" t="n">
+      <c r="I26" s="60" t="n">
         <v>37.1</v>
       </c>
-      <c r="J21" s="62">
+      <c r="J26" s="62">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K21" s="63">
+      <c r="K26" s="63">
         <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
-      <c r="L21" s="64">
+      <c r="L26" s="64">
         <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
-      <c r="M21" s="64">
+      <c r="M26" s="64">
         <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
-      <c r="N21" s="65">
+      <c r="N26" s="65">
         <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
-      <c r="O21" s="63">
+      <c r="O26" s="63">
         <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
-      <c r="P21" s="64">
+      <c r="P26" s="64">
         <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
-      <c r="Q21" s="64">
+      <c r="Q26" s="64">
         <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
-      <c r="R21" s="64">
+      <c r="R26" s="64">
         <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
-      <c r="S21" s="66">
+      <c r="S26" s="66">
         <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
-      <c r="T21" s="67">
+      <c r="T26" s="67">
         <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
-      <c r="U21" s="67">
+      <c r="U26" s="67">
         <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
-      <c r="V21" s="67">
+      <c r="V26" s="67">
         <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
-      <c r="W21" s="67" t="n"/>
-      <c r="X21" s="67" t="n"/>
-      <c r="Y21" s="66">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="Z21" s="67" t="n"/>
-      <c r="AA21" s="67" t="n"/>
-      <c r="AB21" s="68" t="n"/>
-      <c r="AC21" s="64">
+      <c r="W26" s="67" t="n">
+        <v>7504.1</v>
+      </c>
+      <c r="X26" s="85" t="n">
+        <v>45842</v>
+      </c>
+      <c r="Y26" s="66" t="n">
+        <v>0.217277</v>
+      </c>
+      <c r="Z26" s="67" t="n">
+        <v>1343.74</v>
+      </c>
+      <c r="AA26" s="67" t="n">
+        <v>7485.02</v>
+      </c>
+      <c r="AB26" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="64">
         <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
-      <c r="AD21" s="69" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="58" t="n">
+      <c r="AD26" s="69" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="58" t="n">
         <v>45712</v>
       </c>
-      <c r="B22" s="59" t="inlineStr">
+      <c r="B27" s="59" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C22" s="59" t="inlineStr">
+      <c r="C27" s="59" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D22" s="60" t="n">
+      <c r="D27" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="E22" s="61" t="n">
+      <c r="E27" s="61" t="n">
         <v>6302.09</v>
       </c>
-      <c r="F22" s="61" t="n">
+      <c r="F27" s="61" t="n">
         <v>12604.18</v>
       </c>
-      <c r="G22" s="59" t="inlineStr">
+      <c r="G27" s="59" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H22" s="60" t="n">
+      <c r="H27" s="60" t="n">
         <v>12.49</v>
       </c>
-      <c r="I22" s="60" t="n">
+      <c r="I27" s="60" t="n">
         <v>76.19</v>
       </c>
-      <c r="J22" s="62">
+      <c r="J27" s="62">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K22" s="63">
+      <c r="K27" s="63">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
-      <c r="L22" s="64">
+      <c r="L27" s="64">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
-      <c r="M22" s="64">
+      <c r="M27" s="64">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
-      <c r="N22" s="65">
+      <c r="N27" s="65">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
-      <c r="O22" s="63">
+      <c r="O27" s="63">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
-      <c r="P22" s="64">
+      <c r="P27" s="64">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
-      <c r="Q22" s="64">
+      <c r="Q27" s="64">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
-      <c r="R22" s="64">
+      <c r="R27" s="64">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
-      <c r="S22" s="66">
+      <c r="S27" s="66">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
-      <c r="T22" s="67">
+      <c r="T27" s="67">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
-      <c r="U22" s="67">
+      <c r="U27" s="67">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
-      <c r="V22" s="67">
+      <c r="V27" s="67">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
-      <c r="W22" s="67" t="n"/>
-      <c r="X22" s="67" t="n"/>
-      <c r="Y22" s="66">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
-        <v/>
-      </c>
-      <c r="Z22" s="67" t="n"/>
-      <c r="AA22" s="67" t="n"/>
-      <c r="AB22" s="68" t="n"/>
-      <c r="AC22" s="64">
+      <c r="W27" s="67" t="n">
+        <v>7504.1</v>
+      </c>
+      <c r="X27" s="85" t="n">
+        <v>45842</v>
+      </c>
+      <c r="Y27" s="66" t="n">
+        <v>0.093374</v>
+      </c>
+      <c r="Z27" s="67" t="n">
+        <v>1185.18</v>
+      </c>
+      <c r="AA27" s="67" t="n">
+        <v>7487.27</v>
+      </c>
+      <c r="AB27" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="64">
         <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
-      <c r="AD22" s="69" t="n"/>
-    </row>
-    <row r="23">
-      <c r="E23" s="70" t="n"/>
-      <c r="F23" s="70" t="n"/>
-      <c r="G23" s="71" t="n"/>
-      <c r="J23" s="70" t="n"/>
-      <c r="K23" s="70" t="n"/>
-      <c r="L23" s="70" t="n"/>
-      <c r="M23" s="26" t="n"/>
-      <c r="W23" s="70" t="n"/>
-      <c r="X23" s="70" t="n"/>
-      <c r="Y23" s="70" t="n"/>
-      <c r="Z23" s="70" t="n"/>
-      <c r="AA23" s="70" t="n"/>
-      <c r="AB23" s="70" t="n"/>
-      <c r="AC23" s="70" t="n"/>
-    </row>
-    <row r="24">
-      <c r="E24" s="70" t="n"/>
-      <c r="F24" s="70" t="n"/>
-      <c r="G24" s="71" t="n"/>
-      <c r="J24" s="70" t="n"/>
-      <c r="K24" s="70" t="n"/>
-      <c r="L24" s="70" t="n"/>
-      <c r="M24" s="26" t="n"/>
-      <c r="W24" s="70" t="n"/>
-      <c r="X24" s="70" t="n"/>
-      <c r="Y24" s="70" t="n"/>
-      <c r="Z24" s="70" t="n"/>
-      <c r="AA24" s="70" t="n"/>
-      <c r="AB24" s="70" t="n"/>
-      <c r="AC24" s="70" t="n"/>
-    </row>
-    <row r="25">
-      <c r="E25" s="70" t="n"/>
-      <c r="F25" s="70" t="n"/>
-      <c r="G25" s="71" t="n"/>
-      <c r="J25" s="70" t="n"/>
-      <c r="K25" s="70" t="n"/>
-      <c r="L25" s="70" t="n"/>
-      <c r="M25" s="26" t="n"/>
-      <c r="W25" s="70" t="n"/>
-      <c r="X25" s="70" t="n"/>
-      <c r="Y25" s="70" t="n"/>
-      <c r="Z25" s="70" t="n"/>
-      <c r="AA25" s="70" t="n"/>
-      <c r="AB25" s="70" t="n"/>
-      <c r="AC25" s="70" t="n"/>
-    </row>
-    <row r="26">
-      <c r="E26" s="70" t="n"/>
-      <c r="F26" s="70" t="n"/>
-      <c r="G26" s="71" t="n"/>
-      <c r="J26" s="70" t="n"/>
-      <c r="K26" s="70" t="n"/>
-      <c r="L26" s="70" t="n"/>
-      <c r="M26" s="26" t="n"/>
-      <c r="W26" s="70" t="n"/>
-      <c r="X26" s="70" t="n"/>
-      <c r="Y26" s="70" t="n"/>
-      <c r="Z26" s="70" t="n"/>
-      <c r="AA26" s="70" t="n"/>
-      <c r="AB26" s="70" t="n"/>
-      <c r="AC26" s="70" t="n"/>
-    </row>
-    <row r="27">
-      <c r="E27" s="70" t="n"/>
-      <c r="F27" s="70" t="n"/>
-      <c r="G27" s="71" t="n"/>
-      <c r="J27" s="70" t="n"/>
-      <c r="K27" s="70" t="n"/>
-      <c r="L27" s="70" t="n"/>
-      <c r="M27" s="26" t="n"/>
-      <c r="W27" s="70" t="n"/>
-      <c r="X27" s="70" t="n"/>
-      <c r="Y27" s="70" t="n"/>
-      <c r="Z27" s="70" t="n"/>
-      <c r="AA27" s="70" t="n"/>
-      <c r="AB27" s="70" t="n"/>
-      <c r="AC27" s="70" t="n"/>
+      <c r="AD27" s="69" t="n"/>
     </row>
     <row r="28">
       <c r="E28" s="70" t="n"/>
@@ -45830,6 +45941,7 @@
       <c r="J959" s="70" t="n"/>
       <c r="K959" s="70" t="n"/>
       <c r="L959" s="70" t="n"/>
+      <c r="M959" s="26" t="n"/>
       <c r="W959" s="70" t="n"/>
       <c r="X959" s="70" t="n"/>
       <c r="Y959" s="70" t="n"/>
@@ -45845,6 +45957,7 @@
       <c r="J960" s="70" t="n"/>
       <c r="K960" s="70" t="n"/>
       <c r="L960" s="70" t="n"/>
+      <c r="M960" s="26" t="n"/>
       <c r="W960" s="70" t="n"/>
       <c r="X960" s="70" t="n"/>
       <c r="Y960" s="70" t="n"/>
@@ -45860,6 +45973,7 @@
       <c r="J961" s="70" t="n"/>
       <c r="K961" s="70" t="n"/>
       <c r="L961" s="70" t="n"/>
+      <c r="M961" s="26" t="n"/>
       <c r="W961" s="70" t="n"/>
       <c r="X961" s="70" t="n"/>
       <c r="Y961" s="70" t="n"/>
@@ -45875,6 +45989,7 @@
       <c r="J962" s="70" t="n"/>
       <c r="K962" s="70" t="n"/>
       <c r="L962" s="70" t="n"/>
+      <c r="M962" s="26" t="n"/>
       <c r="W962" s="70" t="n"/>
       <c r="X962" s="70" t="n"/>
       <c r="Y962" s="70" t="n"/>
@@ -45890,6 +46005,7 @@
       <c r="J963" s="70" t="n"/>
       <c r="K963" s="70" t="n"/>
       <c r="L963" s="70" t="n"/>
+      <c r="M963" s="26" t="n"/>
       <c r="W963" s="70" t="n"/>
       <c r="X963" s="70" t="n"/>
       <c r="Y963" s="70" t="n"/>
@@ -46077,6 +46193,81 @@
       <c r="AA975" s="70" t="n"/>
       <c r="AB975" s="70" t="n"/>
       <c r="AC975" s="70" t="n"/>
+    </row>
+    <row r="976">
+      <c r="E976" s="70" t="n"/>
+      <c r="F976" s="70" t="n"/>
+      <c r="G976" s="71" t="n"/>
+      <c r="J976" s="70" t="n"/>
+      <c r="K976" s="70" t="n"/>
+      <c r="L976" s="70" t="n"/>
+      <c r="W976" s="70" t="n"/>
+      <c r="X976" s="70" t="n"/>
+      <c r="Y976" s="70" t="n"/>
+      <c r="Z976" s="70" t="n"/>
+      <c r="AA976" s="70" t="n"/>
+      <c r="AB976" s="70" t="n"/>
+      <c r="AC976" s="70" t="n"/>
+    </row>
+    <row r="977">
+      <c r="E977" s="70" t="n"/>
+      <c r="F977" s="70" t="n"/>
+      <c r="G977" s="71" t="n"/>
+      <c r="J977" s="70" t="n"/>
+      <c r="K977" s="70" t="n"/>
+      <c r="L977" s="70" t="n"/>
+      <c r="W977" s="70" t="n"/>
+      <c r="X977" s="70" t="n"/>
+      <c r="Y977" s="70" t="n"/>
+      <c r="Z977" s="70" t="n"/>
+      <c r="AA977" s="70" t="n"/>
+      <c r="AB977" s="70" t="n"/>
+      <c r="AC977" s="70" t="n"/>
+    </row>
+    <row r="978">
+      <c r="E978" s="70" t="n"/>
+      <c r="F978" s="70" t="n"/>
+      <c r="G978" s="71" t="n"/>
+      <c r="J978" s="70" t="n"/>
+      <c r="K978" s="70" t="n"/>
+      <c r="L978" s="70" t="n"/>
+      <c r="W978" s="70" t="n"/>
+      <c r="X978" s="70" t="n"/>
+      <c r="Y978" s="70" t="n"/>
+      <c r="Z978" s="70" t="n"/>
+      <c r="AA978" s="70" t="n"/>
+      <c r="AB978" s="70" t="n"/>
+      <c r="AC978" s="70" t="n"/>
+    </row>
+    <row r="979">
+      <c r="E979" s="70" t="n"/>
+      <c r="F979" s="70" t="n"/>
+      <c r="G979" s="71" t="n"/>
+      <c r="J979" s="70" t="n"/>
+      <c r="K979" s="70" t="n"/>
+      <c r="L979" s="70" t="n"/>
+      <c r="W979" s="70" t="n"/>
+      <c r="X979" s="70" t="n"/>
+      <c r="Y979" s="70" t="n"/>
+      <c r="Z979" s="70" t="n"/>
+      <c r="AA979" s="70" t="n"/>
+      <c r="AB979" s="70" t="n"/>
+      <c r="AC979" s="70" t="n"/>
+    </row>
+    <row r="980">
+      <c r="E980" s="70" t="n"/>
+      <c r="F980" s="70" t="n"/>
+      <c r="G980" s="71" t="n"/>
+      <c r="J980" s="70" t="n"/>
+      <c r="K980" s="70" t="n"/>
+      <c r="L980" s="70" t="n"/>
+      <c r="W980" s="70" t="n"/>
+      <c r="X980" s="70" t="n"/>
+      <c r="Y980" s="70" t="n"/>
+      <c r="Z980" s="70" t="n"/>
+      <c r="AA980" s="70" t="n"/>
+      <c r="AB980" s="70" t="n"/>
+      <c r="AC980" s="70" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$38"/>
